--- a/fluttre  (1) (1).xlsx
+++ b/fluttre  (1) (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{5B8B3889-373F-48F5-9251-40B3449F1093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48514E04-B836-4830-BDD6-3F8C99A8E719}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{5B8B3889-373F-48F5-9251-40B3449F1093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0E78965-7DD8-4D08-AB04-DFB7D3C03D7B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="1088">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -5205,9 +5205,6 @@
 وتحط الداته التي تريدها</t>
   </si>
   <si>
-    <t>الدرس 23.5</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Map aa={};</t>
   </si>
   <si>
@@ -5320,6 +5317,125 @@
  الخارجي
 والا قيمتها فاضيه نفس الفاريبول الي في السطر426
 واذا هي فاضيه نفذ الي فسطر 428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إضافة ميثود في كلاس من صنعنا </t>
+  </si>
+  <si>
+    <r>
+      <t>class AllContre {
+ f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inal String flag;
+ final String cantreName;
+ final String link;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> AllContre({
+    required this.flag,
+     required this.cantreName,
+     required this.link
+     });</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List&lt;AllContre&gt; allContre = [
+    AllContre(
+        link: 'Africa/Cairo', cantreName: 'Egypt - Cairo', flag: 'egypt.png'),
+    AllContre(
+        link: 'Africa/Tunis',
+        cantreName: 'Tunisia - Tunis',
+        flag: 'tunisia.png'),
+    AllContre(
+        link: 'Africa/Algiers',
+        cantreName: 'Algeria - Algiers',
+        flag: 'algeria.png'),
+    AllContre(
+        link: 'Australia/Sydney',
+        cantreName: 'Australia - Sydney',
+        flag: 'australia.png'),
+    AllContre(
+        link: 'America/Toronto',
+        cantreName: 'Canada - Toronto',
+        flag: 'canada.png'),
+    AllContre(
+        link: 'Asia/Riyadh',
+        cantreName: '	Saudi Arabia - Riyadh',
+        flag: 'sa.png'),
+  ];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اول شي اضيف الميثود الجديده داخل الكلاس الذي صنعناه
+</t>
+  </si>
+  <si>
+    <t>ثما تضع دالة احضار العناصر
+في نفس الصفحه</t>
+  </si>
+  <si>
+    <t>في الصفحه الي فيها كل الدوال ومخزن فيها 
+أنواع كبيره من الداتات لابد من وضع الماب 
+التي تحمل اسم الميثد الجديده في فاريبول</t>
+  </si>
+  <si>
+    <t>الدرس 23.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> onTap: () async {
+                        AllContre clikcantre = allContre[index];
+                        await clikcantre.getData();
+                        Navigator.pop(context,
+                            {"time": clikcantre.timeNaw, "locechn": clikcantre.timeZone, "agg": clikcantre.aaa});
+                      },
+                      leading: CircleAvatar(
+                        backgroundImage:
+                            AssetImage("assets/${allContre[index].flag}"),
+                      ),
+                      title: Text(
+                        allContre[index].cantreName,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> automaticallyImplyLeading: false,</t>
+  </si>
+  <si>
+    <t>يمنع ظهور سهم الرجوع في الصفحه</t>
+  </si>
+  <si>
+    <t>كود جديد</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> onPressed: ()async {
+              dynamic result = await Navigator.pushNamed(context, '/as');
+              print(result);
+                setState(() {
+                  if (result==null) {
+                     aa={
+                       "ass":"" ,"add":"نرجو منك اختيار الدوله","aaa":false
+                  };
+                  } else {
+                    aa={
+                       "ass":result["time"]  ,"add":result ["locechn"],"aaa":result ["agg"]
+                  }; 
+                  }
+                });
+              },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">والداتهresult
+في حالة الايف الشرطيه علشانو سويت رجوع من السهم 
+الي في اعلى الشاشة ميصير ارو </t>
+  </si>
+  <si>
+    <t xml:space="preserve">استخدام  الفاريبول الي فيه الماب في أي مكان
+</t>
   </si>
 </sst>
 </file>
@@ -5741,40 +5857,46 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5807,14 +5929,8 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6149,10 +6265,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -6248,11 +6364,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -6285,11 +6401,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -6316,10 +6432,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="49"/>
+      <c r="B28" s="47"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -6378,10 +6494,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="44"/>
+      <c r="B36" s="50"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -6416,10 +6532,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="44"/>
+      <c r="B49" s="50"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -6438,10 +6554,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="44"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -6491,10 +6607,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="43"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
@@ -6571,11 +6687,11 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -6633,11 +6749,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="43" t="s">
+      <c r="A85" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -6683,11 +6799,11 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="48"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -6714,11 +6830,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="43" t="s">
+      <c r="A99" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="48"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -6785,10 +6901,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="43" t="s">
+      <c r="A108" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="43"/>
+      <c r="B108" s="48"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" ht="84" x14ac:dyDescent="0.3">
@@ -6838,11 +6954,11 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="43" t="s">
+      <c r="A115" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="43"/>
-      <c r="C115" s="43"/>
+      <c r="B115" s="48"/>
+      <c r="C115" s="48"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -6885,11 +7001,11 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="43" t="s">
+      <c r="A122" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="43"/>
-      <c r="C122" s="43"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="48"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -6932,11 +7048,11 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="43" t="s">
+      <c r="A129" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="43"/>
-      <c r="C129" s="43"/>
+      <c r="B129" s="48"/>
+      <c r="C129" s="48"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -6963,11 +7079,11 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="43" t="s">
+      <c r="A134" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="B134" s="43"/>
-      <c r="C134" s="43"/>
+      <c r="B134" s="48"/>
+      <c r="C134" s="48"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -7010,11 +7126,11 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="43" t="s">
+      <c r="A141" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="43"/>
-      <c r="C141" s="43"/>
+      <c r="B141" s="48"/>
+      <c r="C141" s="48"/>
     </row>
     <row r="142" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -7033,11 +7149,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="43" t="s">
+      <c r="A146" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="43"/>
-      <c r="C146" s="43"/>
+      <c r="B146" s="48"/>
+      <c r="C146" s="48"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -7073,11 +7189,11 @@
       <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="46" t="s">
+      <c r="A153" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="46"/>
-      <c r="C153" s="46"/>
+      <c r="B153" s="51"/>
+      <c r="C153" s="51"/>
     </row>
     <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -7120,11 +7236,11 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="44" t="s">
+      <c r="A160" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="B160" s="44"/>
-      <c r="C160" s="44"/>
+      <c r="B160" s="50"/>
+      <c r="C160" s="50"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
@@ -7159,11 +7275,11 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="44" t="s">
+      <c r="A166" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B166" s="44"/>
-      <c r="C166" s="44"/>
+      <c r="B166" s="50"/>
+      <c r="C166" s="50"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
@@ -7198,11 +7314,11 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="44" t="s">
+      <c r="A172" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="B172" s="44"/>
-      <c r="C172" s="44"/>
+      <c r="B172" s="50"/>
+      <c r="C172" s="50"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -7245,11 +7361,11 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="43" t="s">
+      <c r="A179" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="43"/>
-      <c r="C179" s="43"/>
+      <c r="B179" s="48"/>
+      <c r="C179" s="48"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
@@ -7273,11 +7389,11 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="43" t="s">
+      <c r="A186" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="B186" s="43"/>
-      <c r="C186" s="43"/>
+      <c r="B186" s="48"/>
+      <c r="C186" s="48"/>
     </row>
     <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
@@ -7331,11 +7447,11 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="46" t="s">
+      <c r="A194" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="46"/>
-      <c r="C194" s="46"/>
+      <c r="B194" s="51"/>
+      <c r="C194" s="51"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
@@ -7362,11 +7478,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="43" t="s">
+      <c r="A200" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="B200" s="43"/>
-      <c r="C200" s="43"/>
+      <c r="B200" s="48"/>
+      <c r="C200" s="48"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -7401,11 +7517,11 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="43" t="s">
+      <c r="A206" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="43"/>
-      <c r="C206" s="43"/>
+      <c r="B206" s="48"/>
+      <c r="C206" s="48"/>
     </row>
     <row r="207" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
@@ -7424,11 +7540,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="43" t="s">
+      <c r="A211" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="43"/>
-      <c r="C211" s="43"/>
+      <c r="B211" s="48"/>
+      <c r="C211" s="48"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -7474,7 +7590,7 @@
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B217" s="50" t="s">
+      <c r="B217" s="43" t="s">
         <v>245</v>
       </c>
     </row>
@@ -7482,7 +7598,7 @@
       <c r="A218" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B218" s="50"/>
+      <c r="B218" s="43"/>
     </row>
     <row r="219" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
@@ -7522,11 +7638,11 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="43" t="s">
+      <c r="A225" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="B225" s="43"/>
-      <c r="C225" s="43"/>
+      <c r="B225" s="48"/>
+      <c r="C225" s="48"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
@@ -7601,11 +7717,11 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="44" t="s">
+      <c r="A237" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="B237" s="44"/>
-      <c r="C237" s="44"/>
+      <c r="B237" s="50"/>
+      <c r="C237" s="50"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
@@ -7680,11 +7796,11 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="43" t="s">
+      <c r="A248" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="B248" s="43"/>
-      <c r="C248" s="43"/>
+      <c r="B248" s="48"/>
+      <c r="C248" s="48"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
@@ -7703,11 +7819,11 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="43" t="s">
+      <c r="A253" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="B253" s="43"/>
-      <c r="C253" s="43"/>
+      <c r="B253" s="48"/>
+      <c r="C253" s="48"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -7734,11 +7850,11 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="43" t="s">
+      <c r="A258" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="B258" s="43"/>
-      <c r="C258" s="43"/>
+      <c r="B258" s="48"/>
+      <c r="C258" s="48"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
@@ -7765,16 +7881,16 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="43" t="s">
+      <c r="A263" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B263" s="43"/>
+      <c r="B263" s="48"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="44" t="s">
+      <c r="A264" s="50" t="s">
         <v>500</v>
       </c>
-      <c r="B264" s="44"/>
+      <c r="B264" s="50"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
@@ -7783,7 +7899,7 @@
       <c r="B265" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C265" s="50" t="s">
+      <c r="C265" s="43" t="s">
         <v>502</v>
       </c>
     </row>
@@ -7794,7 +7910,7 @@
       <c r="B266" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C266" s="45"/>
+      <c r="C266" s="44"/>
     </row>
     <row r="267" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
@@ -7803,7 +7919,7 @@
       <c r="B267" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C267" s="45"/>
+      <c r="C267" s="44"/>
     </row>
     <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
@@ -7814,11 +7930,11 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="48" t="s">
+      <c r="A270" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="B270" s="51"/>
-      <c r="C270" s="49"/>
+      <c r="B270" s="46"/>
+      <c r="C270" s="47"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
@@ -7868,11 +7984,11 @@
       <c r="A276" s="3"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="43" t="s">
+      <c r="A279" s="48" t="s">
         <v>503</v>
       </c>
-      <c r="B279" s="43"/>
-      <c r="C279" s="43"/>
+      <c r="B279" s="48"/>
+      <c r="C279" s="48"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -7910,11 +8026,11 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="43" t="s">
+      <c r="A285" s="48" t="s">
         <v>584</v>
       </c>
-      <c r="B285" s="43"/>
-      <c r="C285" s="43"/>
+      <c r="B285" s="48"/>
+      <c r="C285" s="48"/>
     </row>
     <row r="286" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
@@ -7941,11 +8057,11 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="43" t="s">
+      <c r="A290" s="48" t="s">
         <v>591</v>
       </c>
-      <c r="B290" s="43"/>
-      <c r="C290" s="43"/>
+      <c r="B290" s="48"/>
+      <c r="C290" s="48"/>
     </row>
     <row r="291" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
@@ -7972,11 +8088,11 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="43" t="s">
+      <c r="A295" s="48" t="s">
         <v>612</v>
       </c>
-      <c r="B295" s="43"/>
-      <c r="C295" s="43"/>
+      <c r="B295" s="48"/>
+      <c r="C295" s="48"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
@@ -8003,11 +8119,11 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="43" t="s">
+      <c r="A301" s="48" t="s">
         <v>654</v>
       </c>
-      <c r="B301" s="43"/>
-      <c r="C301" s="43"/>
+      <c r="B301" s="48"/>
+      <c r="C301" s="48"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
@@ -8050,11 +8166,11 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="43" t="s">
+      <c r="A309" s="48" t="s">
         <v>922</v>
       </c>
-      <c r="B309" s="43"/>
-      <c r="C309" s="43"/>
+      <c r="B309" s="48"/>
+      <c r="C309" s="48"/>
     </row>
     <row r="310" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A310" s="11" t="s">
@@ -8084,11 +8200,11 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="44" t="s">
+      <c r="A313" s="50" t="s">
         <v>929</v>
       </c>
-      <c r="B313" s="44"/>
-      <c r="C313" s="44"/>
+      <c r="B313" s="50"/>
+      <c r="C313" s="50"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
@@ -8155,7 +8271,7 @@
       <c r="A322" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="B322" s="45" t="s">
+      <c r="B322" s="44" t="s">
         <v>943</v>
       </c>
     </row>
@@ -8163,7 +8279,7 @@
       <c r="A323" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B323" s="45"/>
+      <c r="B323" s="44"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
@@ -8182,11 +8298,11 @@
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="43" t="s">
+      <c r="A328" s="48" t="s">
         <v>950</v>
       </c>
-      <c r="B328" s="43"/>
-      <c r="C328" s="43"/>
+      <c r="B328" s="48"/>
+      <c r="C328" s="48"/>
     </row>
     <row r="329" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A329" s="11" t="s">
@@ -8200,7 +8316,7 @@
       <c r="A330" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="B330" s="50" t="s">
+      <c r="B330" s="43" t="s">
         <v>955</v>
       </c>
     </row>
@@ -8208,7 +8324,7 @@
       <c r="A331" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="B331" s="45"/>
+      <c r="B331" s="44"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
@@ -8248,11 +8364,11 @@
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="43" t="s">
+      <c r="A337" s="48" t="s">
         <v>996</v>
       </c>
-      <c r="B337" s="43"/>
-      <c r="C337" s="43"/>
+      <c r="B337" s="48"/>
+      <c r="C337" s="48"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
@@ -8297,11 +8413,11 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="43" t="s">
+      <c r="A345" s="48" t="s">
         <v>1002</v>
       </c>
-      <c r="B345" s="43"/>
-      <c r="C345" s="43"/>
+      <c r="B345" s="48"/>
+      <c r="C345" s="48"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
@@ -8345,41 +8461,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="B330:B331"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A179:C179"/>
     <mergeCell ref="A345:C345"/>
     <mergeCell ref="A295:C295"/>
     <mergeCell ref="A225:C225"/>
@@ -8396,6 +8477,41 @@
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A285:C285"/>
     <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="C265:C267"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="A301:C301"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2A6EAF1E-5314-48F7-97DC-5AEAEB3A8012}"/>
@@ -8413,10 +8529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
-  <dimension ref="A1:D435"/>
+  <dimension ref="A1:D444"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="B435" sqref="B435"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8436,11 +8552,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="5" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -8531,11 +8647,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="54" t="s">
@@ -8561,11 +8677,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="56" t="s">
         <v>322</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
@@ -8745,11 +8861,11 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="57" t="s">
         <v>733</v>
       </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
     </row>
     <row r="44" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
@@ -8758,7 +8874,7 @@
       <c r="B44" s="27" t="s">
         <v>737</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="60" t="s">
         <v>754</v>
       </c>
     </row>
@@ -8769,7 +8885,7 @@
       <c r="B45" s="27" t="s">
         <v>738</v>
       </c>
-      <c r="C45" s="59"/>
+      <c r="C45" s="61"/>
     </row>
     <row r="46" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
@@ -8778,7 +8894,7 @@
       <c r="B46" s="27" t="s">
         <v>739</v>
       </c>
-      <c r="C46" s="59"/>
+      <c r="C46" s="61"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
@@ -8839,10 +8955,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="58" t="s">
         <v>750</v>
       </c>
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="62" t="s">
         <v>760</v>
       </c>
       <c r="C53" s="30" t="s">
@@ -8850,12 +8966,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="56"/>
-      <c r="B54" s="61"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="25"/>
     </row>
     <row r="55" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="58" t="s">
         <v>752</v>
       </c>
       <c r="B55" s="29" t="s">
@@ -8866,7 +8982,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="57"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="31" t="s">
         <v>751</v>
       </c>
@@ -8896,11 +9012,11 @@
       <c r="D58" s="34"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="62" t="s">
+      <c r="A59" s="64" t="s">
         <v>766</v>
       </c>
-      <c r="B59" s="63"/>
-      <c r="C59" s="64"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="66"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="27" t="s">
@@ -9083,11 +9199,11 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="43" t="s">
+      <c r="A80" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
@@ -9130,11 +9246,11 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="43" t="s">
+      <c r="A88" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
     </row>
     <row r="89" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
@@ -9209,11 +9325,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="43" t="s">
+      <c r="A99" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="48"/>
     </row>
     <row r="100" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
@@ -9221,11 +9337,11 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="43" t="s">
+      <c r="A102" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="B102" s="43"/>
-      <c r="C102" s="43"/>
+      <c r="B102" s="48"/>
+      <c r="C102" s="48"/>
     </row>
     <row r="103" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
@@ -9308,10 +9424,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="52" t="s">
+      <c r="A113" s="67" t="s">
         <v>643</v>
       </c>
-      <c r="B113" s="52"/>
+      <c r="B113" s="67"/>
     </row>
     <row r="114" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
@@ -9330,18 +9446,18 @@
       <c r="B116" s="3"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="46" t="s">
+      <c r="A117" s="51" t="s">
         <v>644</v>
       </c>
-      <c r="B117" s="46"/>
-      <c r="C117" s="46"/>
+      <c r="B117" s="51"/>
+      <c r="C117" s="51"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="65" t="s">
+      <c r="A118" s="53" t="s">
         <v>647</v>
       </c>
-      <c r="B118" s="65"/>
-      <c r="C118" s="65"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="53"/>
     </row>
     <row r="119" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
@@ -9356,11 +9472,11 @@
       <c r="B120" s="3"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="65" t="s">
+      <c r="A121" s="53" t="s">
         <v>648</v>
       </c>
-      <c r="B121" s="65"/>
-      <c r="C121" s="65"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="53"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
@@ -9383,11 +9499,11 @@
       <c r="B126" s="3"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="65" t="s">
+      <c r="A127" s="53" t="s">
         <v>650</v>
       </c>
-      <c r="B127" s="65"/>
-      <c r="C127" s="65"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="53"/>
     </row>
     <row r="128" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
@@ -9400,11 +9516,11 @@
       <c r="B129" s="3"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="65" t="s">
+      <c r="A130" s="53" t="s">
         <v>651</v>
       </c>
-      <c r="B130" s="65"/>
-      <c r="C130" s="65"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="53"/>
     </row>
     <row r="131" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
@@ -9468,11 +9584,11 @@
       <c r="B144" s="3"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="43" t="s">
+      <c r="A148" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="B148" s="43"/>
-      <c r="C148" s="43"/>
+      <c r="B148" s="48"/>
+      <c r="C148" s="48"/>
     </row>
     <row r="149" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
@@ -9483,24 +9599,24 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="43" t="s">
+      <c r="A152" s="48" t="s">
         <v>404</v>
       </c>
-      <c r="B152" s="43"/>
-      <c r="C152" s="43"/>
+      <c r="B152" s="48"/>
+      <c r="C152" s="48"/>
     </row>
     <row r="153" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="50" t="s">
+      <c r="A153" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="B153" s="50"/>
+      <c r="B153" s="43"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="43" t="s">
+      <c r="A155" s="48" t="s">
         <v>406</v>
       </c>
-      <c r="B155" s="43"/>
-      <c r="C155" s="43"/>
+      <c r="B155" s="48"/>
+      <c r="C155" s="48"/>
     </row>
     <row r="156" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
@@ -9527,11 +9643,11 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="44" t="s">
+      <c r="A160" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="B160" s="44"/>
-      <c r="C160" s="44"/>
+      <c r="B160" s="50"/>
+      <c r="C160" s="50"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
@@ -9550,11 +9666,11 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="44" t="s">
+      <c r="A165" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="B165" s="44"/>
-      <c r="C165" s="44"/>
+      <c r="B165" s="50"/>
+      <c r="C165" s="50"/>
     </row>
     <row r="166" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
@@ -9573,11 +9689,11 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="44" t="s">
+      <c r="A169" s="50" t="s">
         <v>427</v>
       </c>
-      <c r="B169" s="44"/>
-      <c r="C169" s="44"/>
+      <c r="B169" s="50"/>
+      <c r="C169" s="50"/>
     </row>
     <row r="170" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
@@ -9596,11 +9712,11 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="44" t="s">
+      <c r="A174" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="B174" s="44"/>
-      <c r="C174" s="44"/>
+      <c r="B174" s="50"/>
+      <c r="C174" s="50"/>
     </row>
     <row r="175" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
@@ -9643,11 +9759,11 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="43" t="s">
+      <c r="A182" s="48" t="s">
         <v>442</v>
       </c>
-      <c r="B182" s="43"/>
-      <c r="C182" s="43"/>
+      <c r="B182" s="48"/>
+      <c r="C182" s="48"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
@@ -9682,11 +9798,11 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="44" t="s">
+      <c r="A189" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="B189" s="44"/>
-      <c r="C189" s="44"/>
+      <c r="B189" s="50"/>
+      <c r="C189" s="50"/>
     </row>
     <row r="190" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
@@ -9705,11 +9821,11 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="43" t="s">
+      <c r="A193" s="48" t="s">
         <v>465</v>
       </c>
-      <c r="B193" s="43"/>
-      <c r="C193" s="43"/>
+      <c r="B193" s="48"/>
+      <c r="C193" s="48"/>
     </row>
     <row r="194" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
@@ -9725,11 +9841,11 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="43" t="s">
+      <c r="A197" s="48" t="s">
         <v>469</v>
       </c>
-      <c r="B197" s="43"/>
-      <c r="C197" s="43"/>
+      <c r="B197" s="48"/>
+      <c r="C197" s="48"/>
     </row>
     <row r="198" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
@@ -9770,11 +9886,11 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="44" t="s">
+      <c r="A203" s="50" t="s">
         <v>478</v>
       </c>
-      <c r="B203" s="44"/>
-      <c r="C203" s="44"/>
+      <c r="B203" s="50"/>
+      <c r="C203" s="50"/>
     </row>
     <row r="204" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
@@ -9820,11 +9936,11 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="44" t="s">
+      <c r="A210" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="B210" s="44"/>
-      <c r="C210" s="44"/>
+      <c r="B210" s="50"/>
+      <c r="C210" s="50"/>
     </row>
     <row r="211" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
@@ -9859,11 +9975,11 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="43" t="s">
+      <c r="A217" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="B217" s="43"/>
-      <c r="C217" s="43"/>
+      <c r="B217" s="48"/>
+      <c r="C217" s="48"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
@@ -9909,11 +10025,11 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="44" t="s">
+      <c r="A224" s="50" t="s">
         <v>684</v>
       </c>
-      <c r="B224" s="44"/>
-      <c r="C224" s="44"/>
+      <c r="B224" s="50"/>
+      <c r="C224" s="50"/>
     </row>
     <row r="225" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A225" s="24" t="s">
@@ -9958,11 +10074,11 @@
       <c r="C230" s="19"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="43" t="s">
+      <c r="A233" s="48" t="s">
         <v>531</v>
       </c>
-      <c r="B233" s="43"/>
-      <c r="C233" s="43"/>
+      <c r="B233" s="48"/>
+      <c r="C233" s="48"/>
     </row>
     <row r="234" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
@@ -9989,11 +10105,11 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="43" t="s">
+      <c r="A238" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="B238" s="43"/>
-      <c r="C238" s="43"/>
+      <c r="B238" s="48"/>
+      <c r="C238" s="48"/>
     </row>
     <row r="239" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
@@ -10036,11 +10152,11 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="43" t="s">
+      <c r="A245" s="48" t="s">
         <v>561</v>
       </c>
-      <c r="B245" s="43"/>
-      <c r="C245" s="43"/>
+      <c r="B245" s="48"/>
+      <c r="C245" s="48"/>
     </row>
     <row r="246" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
@@ -10123,11 +10239,11 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="44" t="s">
+      <c r="A256" s="50" t="s">
         <v>582</v>
       </c>
-      <c r="B256" s="44"/>
-      <c r="C256" s="44"/>
+      <c r="B256" s="50"/>
+      <c r="C256" s="50"/>
     </row>
     <row r="257" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
@@ -10135,11 +10251,11 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="43" t="s">
+      <c r="A260" s="48" t="s">
         <v>598</v>
       </c>
-      <c r="B260" s="43"/>
-      <c r="C260" s="43"/>
+      <c r="B260" s="48"/>
+      <c r="C260" s="48"/>
     </row>
     <row r="261" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
@@ -10195,11 +10311,11 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="43" t="s">
+      <c r="A270" s="48" t="s">
         <v>612</v>
       </c>
-      <c r="B270" s="43"/>
-      <c r="C270" s="43"/>
+      <c r="B270" s="48"/>
+      <c r="C270" s="48"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
@@ -10226,11 +10342,11 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="43" t="s">
+      <c r="A275" s="48" t="s">
         <v>617</v>
       </c>
-      <c r="B275" s="43"/>
-      <c r="C275" s="43"/>
+      <c r="B275" s="48"/>
+      <c r="C275" s="48"/>
     </row>
     <row r="276" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
@@ -10281,11 +10397,11 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="43" t="s">
+      <c r="A283" s="48" t="s">
         <v>631</v>
       </c>
-      <c r="B283" s="43"/>
-      <c r="C283" s="43"/>
+      <c r="B283" s="48"/>
+      <c r="C283" s="48"/>
     </row>
     <row r="284" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
@@ -10334,11 +10450,11 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="43" t="s">
+      <c r="A292" s="48" t="s">
         <v>668</v>
       </c>
-      <c r="B292" s="43"/>
-      <c r="C292" s="43"/>
+      <c r="B292" s="48"/>
+      <c r="C292" s="48"/>
     </row>
     <row r="293" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
@@ -10390,17 +10506,17 @@
       </c>
     </row>
     <row r="298" spans="1:3" ht="71" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="50" t="s">
+      <c r="A298" s="43" t="s">
         <v>682</v>
       </c>
-      <c r="B298" s="45"/>
+      <c r="B298" s="44"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="43" t="s">
+      <c r="A300" s="48" t="s">
         <v>781</v>
       </c>
-      <c r="B300" s="43"/>
-      <c r="C300" s="43"/>
+      <c r="B300" s="48"/>
+      <c r="C300" s="48"/>
     </row>
     <row r="301" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A301" s="36" t="s">
@@ -10478,11 +10594,11 @@
       <c r="C309" s="3"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="44" t="s">
+      <c r="A311" s="50" t="s">
         <v>802</v>
       </c>
-      <c r="B311" s="44"/>
-      <c r="C311" s="44"/>
+      <c r="B311" s="50"/>
+      <c r="C311" s="50"/>
     </row>
     <row r="312" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
@@ -10518,11 +10634,11 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="44" t="s">
+      <c r="A316" s="50" t="s">
         <v>812</v>
       </c>
-      <c r="B316" s="44"/>
-      <c r="C316" s="44"/>
+      <c r="B316" s="50"/>
+      <c r="C316" s="50"/>
     </row>
     <row r="317" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
@@ -10549,11 +10665,11 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="43" t="s">
+      <c r="A321" s="48" t="s">
         <v>819</v>
       </c>
-      <c r="B321" s="43"/>
-      <c r="C321" s="43"/>
+      <c r="B321" s="48"/>
+      <c r="C321" s="48"/>
     </row>
     <row r="322" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
@@ -10572,11 +10688,11 @@
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="44" t="s">
+      <c r="A325" s="50" t="s">
         <v>823</v>
       </c>
-      <c r="B325" s="44"/>
-      <c r="C325" s="44"/>
+      <c r="B325" s="50"/>
+      <c r="C325" s="50"/>
     </row>
     <row r="326" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A326" s="38" t="s">
@@ -10663,11 +10779,11 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="43" t="s">
+      <c r="A336" s="48" t="s">
         <v>848</v>
       </c>
-      <c r="B336" s="43"/>
-      <c r="C336" s="43"/>
+      <c r="B336" s="48"/>
+      <c r="C336" s="48"/>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
@@ -10705,11 +10821,11 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="66" t="s">
+      <c r="A344" s="55" t="s">
         <v>849</v>
       </c>
-      <c r="B344" s="66"/>
-      <c r="C344" s="66"/>
+      <c r="B344" s="55"/>
+      <c r="C344" s="55"/>
     </row>
     <row r="345" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
@@ -10723,11 +10839,11 @@
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="43" t="s">
+      <c r="A348" s="48" t="s">
         <v>856</v>
       </c>
-      <c r="B348" s="43"/>
-      <c r="C348" s="43"/>
+      <c r="B348" s="48"/>
+      <c r="C348" s="48"/>
     </row>
     <row r="349" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
@@ -10813,11 +10929,11 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A360" s="44" t="s">
+      <c r="A360" s="50" t="s">
         <v>879</v>
       </c>
-      <c r="B360" s="44"/>
-      <c r="C360" s="44"/>
+      <c r="B360" s="50"/>
+      <c r="C360" s="50"/>
     </row>
     <row r="361" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A361" s="11" t="s">
@@ -10871,11 +10987,11 @@
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A367" s="44" t="s">
+      <c r="A367" s="50" t="s">
         <v>894</v>
       </c>
-      <c r="B367" s="44"/>
-      <c r="C367" s="44"/>
+      <c r="B367" s="50"/>
+      <c r="C367" s="50"/>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
@@ -10929,11 +11045,11 @@
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="43" t="s">
+      <c r="A375" s="48" t="s">
         <v>910</v>
       </c>
-      <c r="B375" s="43"/>
-      <c r="C375" s="43"/>
+      <c r="B375" s="48"/>
+      <c r="C375" s="48"/>
     </row>
     <row r="376" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
@@ -10960,11 +11076,11 @@
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="44" t="s">
+      <c r="A379" s="50" t="s">
         <v>917</v>
       </c>
-      <c r="B379" s="44"/>
-      <c r="C379" s="44"/>
+      <c r="B379" s="50"/>
+      <c r="C379" s="50"/>
     </row>
     <row r="380" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
@@ -10983,11 +11099,11 @@
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="43" t="s">
+      <c r="A383" s="48" t="s">
         <v>973</v>
       </c>
-      <c r="B383" s="43"/>
-      <c r="C383" s="43"/>
+      <c r="B383" s="48"/>
+      <c r="C383" s="48"/>
     </row>
     <row r="385" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
@@ -11022,11 +11138,11 @@
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="43" t="s">
+      <c r="A391" s="48" t="s">
         <v>974</v>
       </c>
-      <c r="B391" s="43"/>
-      <c r="C391" s="43"/>
+      <c r="B391" s="48"/>
+      <c r="C391" s="48"/>
     </row>
     <row r="392" spans="1:3" ht="168" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
@@ -11083,11 +11199,11 @@
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="43" t="s">
+      <c r="A399" s="48" t="s">
         <v>1011</v>
       </c>
-      <c r="B399" s="43"/>
-      <c r="C399" s="43"/>
+      <c r="B399" s="48"/>
+      <c r="C399" s="48"/>
     </row>
     <row r="400" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
@@ -11096,7 +11212,7 @@
       <c r="B400" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="C400" s="67" t="s">
+      <c r="C400" s="52" t="s">
         <v>1038</v>
       </c>
     </row>
@@ -11107,7 +11223,7 @@
       <c r="B401" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="C401" s="67"/>
+      <c r="C401" s="52"/>
     </row>
     <row r="402" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
@@ -11116,7 +11232,7 @@
       <c r="B402" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="C402" s="67"/>
+      <c r="C402" s="52"/>
     </row>
     <row r="403" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
@@ -11125,7 +11241,7 @@
       <c r="B403" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="C403" s="67"/>
+      <c r="C403" s="52"/>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
@@ -11134,7 +11250,7 @@
       <c r="B404" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="C404" s="67"/>
+      <c r="C404" s="52"/>
     </row>
     <row r="405" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
@@ -11143,7 +11259,7 @@
       <c r="B405" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="C405" s="67"/>
+      <c r="C405" s="52"/>
     </row>
     <row r="406" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
@@ -11152,7 +11268,7 @@
       <c r="B406" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="C406" s="67"/>
+      <c r="C406" s="52"/>
     </row>
     <row r="407" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
@@ -11161,7 +11277,7 @@
       <c r="B407" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="C407" s="67"/>
+      <c r="C407" s="52"/>
     </row>
     <row r="408" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
@@ -11170,7 +11286,7 @@
       <c r="B408" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="C408" s="67"/>
+      <c r="C408" s="52"/>
     </row>
     <row r="409" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
@@ -11184,11 +11300,11 @@
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="44" t="s">
+      <c r="A411" s="50" t="s">
         <v>1039</v>
       </c>
-      <c r="B411" s="44"/>
-      <c r="C411" s="44"/>
+      <c r="B411" s="50"/>
+      <c r="C411" s="50"/>
     </row>
     <row r="412" spans="1:3" ht="308" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
@@ -11215,11 +11331,11 @@
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="44" t="s">
+      <c r="A417" s="50" t="s">
         <v>1051</v>
       </c>
-      <c r="B417" s="44"/>
-      <c r="C417" s="44"/>
+      <c r="B417" s="50"/>
+      <c r="C417" s="50"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
@@ -11262,15 +11378,15 @@
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" s="44" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B424" s="44"/>
-      <c r="C424" s="44"/>
+      <c r="A424" s="50" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B424" s="50"/>
+      <c r="C424" s="50"/>
     </row>
     <row r="425" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>1062</v>
@@ -11278,58 +11394,136 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B429" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="B429" s="3" t="s">
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" s="50" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A435" s="1" t="s">
-        <v>1063</v>
+      <c r="B431" s="50"/>
+      <c r="C431" s="50"/>
+    </row>
+    <row r="432" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A432" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A433" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="336" x14ac:dyDescent="0.3">
+      <c r="A434" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="210" x14ac:dyDescent="0.3">
+      <c r="A435" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C436" s="35" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="224" x14ac:dyDescent="0.3">
+      <c r="A437" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" s="1" t="s">
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A260:C260"/>
-    <mergeCell ref="A399:C399"/>
-    <mergeCell ref="A375:C375"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="C400:C408"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A245:C245"/>
+  <mergeCells count="67">
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A424:C424"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="A391:C391"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A174:C174"/>
     <mergeCell ref="A336:C336"/>
     <mergeCell ref="A367:C367"/>
     <mergeCell ref="A360:C360"/>
@@ -11346,41 +11540,22 @@
     <mergeCell ref="A127:C127"/>
     <mergeCell ref="A130:C130"/>
     <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A424:C424"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="A391:C391"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A399:C399"/>
+    <mergeCell ref="A375:C375"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="C400:C408"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A245:C245"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A361" r:id="rId1" xr:uid="{D9DA8AC6-553A-495C-B259-2291D3294DC9}"/>
